--- a/frontend/public/consent_m.xlsx
+++ b/frontend/public/consent_m.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\marriage-system\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B484E-7D15-4D54-B598-932DE14C5487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8651863-BF08-40DE-9D36-4D009FEE146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A5444F27-7B45-41CA-BF99-A5AE010FC78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{A5444F27-7B45-41CA-BF99-A5AE010FC78E}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONSENT M" sheetId="1" r:id="rId1"/>
+    <sheet name="APPLICATION" sheetId="2" r:id="rId1"/>
+    <sheet name="CONSENT M" sheetId="1" r:id="rId2"/>
+    <sheet name="AddressBACKNotice" sheetId="3" r:id="rId3"/>
+    <sheet name="EnvelopeAddress" sheetId="4" r:id="rId4"/>
+    <sheet name="NOTICE" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Municipal Form No. 92</t>
   </si>
@@ -148,15 +149,136 @@
   <si>
     <t>Exempt from documentary stamp tax</t>
   </si>
+  <si>
+    <t>Nueva Vizcaya</t>
+  </si>
+  <si>
+    <t>Solano</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BERNADETTE T. SAMANDRE</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Solano, Nueva Vizcaya</t>
+  </si>
+  <si>
+    <t>National ID 4091-6805-3082-4958</t>
+  </si>
+  <si>
+    <t>National ID 4618-6358-2391-7683</t>
+  </si>
+  <si>
+    <t>CENSUS MAIL FREE</t>
+  </si>
+  <si>
+    <t>Pursuant to RA 265</t>
+  </si>
+  <si>
+    <t>THE LOCAL CIVIL REGISTRAR</t>
+  </si>
+  <si>
+    <t>Local Registrar's Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Local Civil Registrar's Office</t>
+  </si>
+  <si>
+    <t>Mun. Form No. 9</t>
+  </si>
+  <si>
+    <t>OFFICE OF THE MUNICIPAL CIVIL REGISTRAR</t>
+  </si>
+  <si>
+    <t>N O T I C E</t>
+  </si>
+  <si>
+    <t>APPLICANTS FOR MARRIAGE LICENSE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Birthplace</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Wishes to contract marriage with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any  person  having  knowledge  of  any legal  impediment  to such marriage will please report to this Office </t>
+  </si>
+  <si>
+    <t>within ten (10) days from this date.</t>
+  </si>
+  <si>
+    <t>Application Number  :</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Application/Notice Prepared by :</t>
+  </si>
+  <si>
+    <t>Registration Officer II</t>
+  </si>
+  <si>
+    <t>Copy Furnished :</t>
+  </si>
+  <si>
+    <t>L.C.R.</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note:   This notice  shall request all persons having knowledge of any impediment to the marriage to advise the </t>
+  </si>
+  <si>
+    <t>Local Civil Registrar thereof. The license shall be issued after completion of the publication, unless the LCR</t>
+  </si>
+  <si>
+    <t>receives information of any alleged impediment to the marriage. (RA 366 Art. 63)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +401,83 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Footlight MT Light"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Monotype Corsiva"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,7 +487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -343,11 +542,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,59 +634,316 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,87 +1017,435 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="APPLICATION"/>
-      <sheetName val="CONSENT F"/>
-      <sheetName val="CONSENT M"/>
-      <sheetName val="CONSENT M&amp;F"/>
-      <sheetName val="ADVICE M"/>
-      <sheetName val="ADVICE F"/>
-      <sheetName val="ADVICE M&amp;F"/>
-      <sheetName val="ADVICE M-CONSENT F"/>
-      <sheetName val="CONSENT M-ADVICE F"/>
-      <sheetName val="Notice"/>
-      <sheetName val="AddressBACKnotice"/>
-      <sheetName val="EnvelopeAddress"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>RAYMARK</v>
-          </cell>
-          <cell r="U8" t="str">
-            <v>AYANNA MAE</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>RAMOS</v>
-          </cell>
-          <cell r="U10" t="str">
-            <v>ABIERA</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Brgy. Osmeña, Solano, Nueva Vizcaya</v>
-          </cell>
-          <cell r="U15" t="str">
-            <v>Brgy. Pob. South, Solano, Nueva Vizcaya</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>MARICEL</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>RAMOS</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>Mother</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>Brgy. Osmeña, Solano, Nueva Vizcaya</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0230E9-9174-46B3-8605-86EECE5130C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="238125"/>
+          <a:ext cx="914400" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E965B82-2D0E-4C74-A305-A6F794001D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="0"/>
+          <a:ext cx="1323975" cy="1179195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C376C5CA-3296-4778-B9E6-CD7785A99179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8686800" y="3324225"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E7B710-306D-4492-862F-BF28B04C507F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="2733675"/>
+          <a:ext cx="304800" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C9AE7D-8B22-408D-9287-4AE000A2B47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9591675" y="2533650"/>
+          <a:ext cx="304800" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308B685A-0E5F-412D-98E4-F461377581CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9229725" y="7562850"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E1C41B-3BCD-4BF4-9627-F4A291B2F004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5991225" y="2286000"/>
+          <a:ext cx="9753600" cy="6219825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E145E0BC-64C4-43E4-9FF7-75E77037FC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="11305" r="13048"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3486150" y="2190750"/>
+          <a:ext cx="2033270" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -934,11 +1764,1718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DD19E4-2ABF-4804-A48D-6342D607E2EB}">
+  <dimension ref="A1:AI42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:AH7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="2.7109375" style="3"/>
+    <col min="6" max="6" width="5.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="2.7109375" style="3"/>
+    <col min="9" max="9" width="1.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="3"/>
+    <col min="11" max="11" width="3.5703125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="2.7109375" style="3"/>
+    <col min="15" max="15" width="3" style="3" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="2.7109375" style="17"/>
+    <col min="20" max="20" width="5.5703125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="2.7109375" style="3"/>
+    <col min="24" max="24" width="7.7109375" style="3" customWidth="1"/>
+    <col min="25" max="26" width="2.7109375" style="3"/>
+    <col min="27" max="28" width="1.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="3.140625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="2.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="2.28515625" style="3" customWidth="1"/>
+    <col min="32" max="33" width="2.7109375" style="3"/>
+    <col min="34" max="34" width="2.85546875" style="3" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" style="3" customWidth="1"/>
+    <col min="36" max="52" width="2.7109375" style="3"/>
+    <col min="53" max="53" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="2.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
+        <v>2026</v>
+      </c>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="54">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+    </row>
+    <row r="4" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+    </row>
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="55">
+        <v>4</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57">
+        <v>2026</v>
+      </c>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+    </row>
+    <row r="6" spans="1:35" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <f>+U8</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60">
+        <f>+U9</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61">
+        <f>+U10</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63">
+        <f>+B8</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="60">
+        <f>+B9</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="61">
+        <f>+B10</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+    </row>
+    <row r="7" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+    </row>
+    <row r="8" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+    </row>
+    <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+    </row>
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+    </row>
+    <row r="11" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+    </row>
+    <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="67"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+    </row>
+    <row r="13" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+    </row>
+    <row r="14" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+    </row>
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="17"/>
+    </row>
+    <row r="16" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+    </row>
+    <row r="17" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+    </row>
+    <row r="18" spans="2:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+    </row>
+    <row r="19" spans="2:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+    </row>
+    <row r="20" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+    </row>
+    <row r="21" spans="2:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+    </row>
+    <row r="22" spans="2:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82">
+        <f>+B10</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="69">
+        <f>+U10</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
+    </row>
+    <row r="23" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="80">
+        <f>+H13</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="84">
+        <f>+Z13</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
+    </row>
+    <row r="24" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+    </row>
+    <row r="25" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="71">
+        <f>+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="72">
+        <f>+U15</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="69">
+        <f>+AF15</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+    </row>
+    <row r="26" spans="2:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82">
+        <f>+B9</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="69">
+        <f>+U9</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+    </row>
+    <row r="27" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="80">
+        <f>+H13</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+    </row>
+    <row r="28" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+    </row>
+    <row r="29" spans="2:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="89">
+        <f>+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="90">
+        <f>+U25</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="69">
+        <f>+AF25</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="17"/>
+    </row>
+    <row r="30" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="81">
+        <f>+K26</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="69">
+        <f>+L22</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="82">
+        <f>+AD26</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="69">
+        <f>+AC22</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="69"/>
+      <c r="AH30" s="69"/>
+    </row>
+    <row r="31" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+    </row>
+    <row r="32" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+    </row>
+    <row r="33" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+    </row>
+    <row r="34" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="71">
+        <f>+B29</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="72">
+        <f>+U29</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="69">
+        <f>+AF29</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="69"/>
+      <c r="AH34" s="69"/>
+    </row>
+    <row r="35" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="94"/>
+    </row>
+    <row r="36" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="94"/>
+      <c r="AE36" s="94"/>
+      <c r="AF36" s="94"/>
+      <c r="AG36" s="94"/>
+      <c r="AH36" s="94"/>
+    </row>
+    <row r="37" spans="2:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="100"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="97">
+        <f>+B37</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="102"/>
+      <c r="W37" s="98">
+        <f>+E37</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="98"/>
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="98"/>
+      <c r="AC37" s="98"/>
+      <c r="AD37" s="99">
+        <f>+L37</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="100"/>
+      <c r="AF37" s="103"/>
+    </row>
+    <row r="38" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="104"/>
+      <c r="AE38" s="104"/>
+      <c r="AF38" s="104"/>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="104"/>
+    </row>
+    <row r="39" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" s="100"/>
+      <c r="X39" s="100"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="100"/>
+      <c r="AA39" s="100"/>
+      <c r="AB39" s="100"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="100"/>
+      <c r="AE39" s="100"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="100"/>
+      <c r="AH39" s="100"/>
+    </row>
+    <row r="40" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="105"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="100"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="100"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="100"/>
+      <c r="AE40" s="100"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="100"/>
+      <c r="AH40" s="100"/>
+    </row>
+    <row r="41" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="105"/>
+      <c r="X41" s="105"/>
+      <c r="Y41" s="105"/>
+      <c r="Z41" s="105"/>
+      <c r="AA41" s="105"/>
+      <c r="AB41" s="105"/>
+      <c r="AC41" s="105"/>
+      <c r="AD41" s="105"/>
+      <c r="AE41" s="105"/>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="105"/>
+      <c r="AH41" s="105"/>
+    </row>
+    <row r="42" spans="2:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="148">
+    <mergeCell ref="B42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U42:AH42"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:AH40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:AH41"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="U38:AH38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="V39:AH39"/>
+    <mergeCell ref="B35:O36"/>
+    <mergeCell ref="Q35:T36"/>
+    <mergeCell ref="U35:AH36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:AE34"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="U31:AH31"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="U32:AH32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:AH27"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:AH28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:AE25"/>
+    <mergeCell ref="AF25:AH25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AH23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="U24:AH24"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AH21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AD19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AH20"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AH17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AH18"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AH16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AH14"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AH9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AH10"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AH7"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AH8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="G2:W2"/>
+    <mergeCell ref="G3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C33A62-6477-40E6-895D-90F0FFE16088}">
   <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AW38" sqref="AW38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AQ35" sqref="AQ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,121 +3502,121 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
     </row>
     <row r="6" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1156,42 +3693,42 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
       <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:35" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,42 +3769,42 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
       <c r="AI10" s="5"/>
     </row>
     <row r="11" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,47 +3936,47 @@
         <v>11</v>
       </c>
       <c r="C14"/>
-      <c r="D14" s="39" t="str">
-        <f>+[1]APPLICATION!B30</f>
-        <v>MARICEL</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40" t="str">
-        <f>+[1]APPLICATION!L30</f>
-        <v>RAMOS</v>
-      </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="36" t="s">
+      <c r="D14" s="33">
+        <f>+APPLICATION!B30</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34">
+        <f>+APPLICATION!L30</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="36"/>
-      <c r="U14" s="38" t="s">
+      <c r="T14" s="35"/>
+      <c r="U14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
       <c r="AI14" s="9"/>
     </row>
     <row r="15" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,89 +3988,89 @@
       <c r="D15" s="10"/>
       <c r="E15"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="43" t="str">
-        <f>+[1]APPLICATION!B34</f>
-        <v>Brgy. Osmeña, Solano, Nueva Vizcaya</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
+      <c r="G15" s="39">
+        <f>+APPLICATION!B34</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
       <c r="AI15" s="12"/>
     </row>
     <row r="16" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="str">
-        <f>+[1]APPLICATION!B31</f>
-        <v>Mother</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="36" t="s">
+      <c r="A16" s="40">
+        <f>+APPLICATION!B31</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="46" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="36" t="s">
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="47" t="str">
-        <f>+[1]APPLICATION!B8</f>
-        <v>RAYMARK</v>
-      </c>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="48" t="str">
-        <f>+[1]APPLICATION!B10</f>
-        <v>RAMOS</v>
-      </c>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="41">
+        <f>+APPLICATION!B8</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="42">
+        <f>+APPLICATION!B10</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
       <c r="AI16" s="9"/>
     </row>
     <row r="17" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,27 +4084,27 @@
       <c r="F17" s="12"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="43" t="str">
-        <f>+[1]APPLICATION!B15</f>
-        <v>Brgy. Osmeña, Solano, Nueva Vizcaya</v>
-      </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
+      <c r="I17" s="39">
+        <f>+APPLICATION!B15</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1646,18 +4183,18 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19"/>
-      <c r="W19" s="44" t="str">
+      <c r="W19" s="44">
         <f>+Q16</f>
-        <v>RAYMARK</v>
+        <v>0</v>
       </c>
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
       <c r="Z19" s="44"/>
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
-      <c r="AC19" s="45" t="str">
+      <c r="AC19" s="45">
         <f>+Z16</f>
-        <v>RAMOS</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="45"/>
       <c r="AE19" s="45"/>
@@ -1677,29 +4214,29 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="39" t="str">
-        <f>+[1]APPLICATION!U8</f>
-        <v>AYANNA MAE</v>
-      </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40" t="str">
-        <f>+[1]APPLICATION!U10</f>
-        <v>ABIERA</v>
-      </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
+      <c r="I20" s="33">
+        <f>+APPLICATION!U8</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34">
+        <f>+APPLICATION!U10</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
       <c r="Z20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1717,26 +4254,26 @@
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="43" t="str">
-        <f>+[1]APPLICATION!U15</f>
-        <v>Brgy. Pob. South, Solano, Nueva Vizcaya</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
+      <c r="B21" s="39">
+        <f>+APPLICATION!U15</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1940,112 +4477,112 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="39" t="str">
+      <c r="T27" s="33">
         <f>+D14</f>
-        <v>MARICEL</v>
-      </c>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="34">
         <f>+L14</f>
-        <v>RAMOS</v>
-      </c>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="T28" s="41" t="str">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="T28" s="47">
         <f>+A16</f>
-        <v>Mother</v>
-      </c>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="42" t="s">
+      <c r="T29" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,17 +4850,17 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="34">
+      <c r="Q37" s="48">
         <f ca="1">TODAY()</f>
         <v>46061</v>
       </c>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
       <c r="Y37" s="5" t="s">
         <v>31</v>
       </c>
@@ -2439,80 +4976,80 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="49"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="49"/>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -3327,13 +5864,13 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="33"/>
-      <c r="W68" s="33"/>
-      <c r="X68" s="33"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
@@ -3428,18 +5965,18 @@
       <c r="Q71" s="32"/>
       <c r="R71" s="32"/>
       <c r="S71" s="32"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="37"/>
-      <c r="AA71" s="37"/>
-      <c r="AB71" s="37"/>
-      <c r="AC71" s="37"/>
-      <c r="AD71" s="37"/>
-      <c r="AE71" s="37"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
+      <c r="V71" s="50"/>
+      <c r="W71" s="50"/>
+      <c r="X71" s="50"/>
+      <c r="Y71" s="50"/>
+      <c r="Z71" s="50"/>
+      <c r="AA71" s="50"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="50"/>
+      <c r="AD71" s="50"/>
+      <c r="AE71" s="50"/>
     </row>
     <row r="72" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
@@ -3461,18 +5998,18 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="33"/>
-      <c r="W72" s="33"/>
-      <c r="X72" s="33"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
-      <c r="AC72" s="33"/>
-      <c r="AD72" s="33"/>
-      <c r="AE72" s="33"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="46"/>
+      <c r="Y72" s="46"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="46"/>
+      <c r="AD72" s="46"/>
+      <c r="AE72" s="46"/>
     </row>
     <row r="73" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -3542,22 +6079,13 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AH14"/>
-    <mergeCell ref="A3:AI3"/>
-    <mergeCell ref="A4:AI4"/>
-    <mergeCell ref="A5:AI5"/>
-    <mergeCell ref="A8:AH8"/>
-    <mergeCell ref="A10:AH10"/>
-    <mergeCell ref="G15:AH15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="T72:AE72"/>
+    <mergeCell ref="Q37:X37"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="A42:AH42"/>
+    <mergeCell ref="R68:V68"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="T71:AE71"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="T29:AH29"/>
     <mergeCell ref="I17:Z17"/>
@@ -3571,13 +6099,1664 @@
     <mergeCell ref="AB27:AH27"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="T28:AH28"/>
-    <mergeCell ref="T72:AE72"/>
-    <mergeCell ref="Q37:X37"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="A42:AH42"/>
-    <mergeCell ref="R68:V68"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="T71:AE71"/>
+    <mergeCell ref="G15:AH15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AH14"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A4:AI4"/>
+    <mergeCell ref="A5:AI5"/>
+    <mergeCell ref="A8:AH8"/>
+    <mergeCell ref="A10:AH10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8392DEC8-3CD6-4A1E-BBF9-213BE213339C}">
+  <dimension ref="A1:Z17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:Z10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="31" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="T1" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="T2" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="107">
+        <v>3709</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="109">
+        <f>+NOTICE!E44</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:Z7"/>
+    <mergeCell ref="A8:Z8"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A10:Z10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C81A32-9A9F-4695-976D-2F33F3A89AC0}">
+  <dimension ref="A1:Z9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="26" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="107">
+        <v>3709</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="109">
+        <f>+NOTICE!E44</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A9:S9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A8:S8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16E874C-2572-411B-AC7E-015B62067369}">
+  <dimension ref="A1:AY51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:P44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+    <col min="9" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="22" width="2.7109375" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" customWidth="1"/>
+    <col min="25" max="101" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="111"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+    </row>
+    <row r="8" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+    </row>
+    <row r="9" spans="1:51" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+    </row>
+    <row r="10" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+    </row>
+    <row r="11" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+    </row>
+    <row r="12" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="117">
+        <f>+APPLICATION!B8</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120">
+        <f>+APPLICATION!B10</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="116"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="116"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+    </row>
+    <row r="13" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+    </row>
+    <row r="14" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+    </row>
+    <row r="15" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+    </row>
+    <row r="16" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125">
+        <f>+APPLICATION!U8</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="120">
+        <f>+APPLICATION!U10</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="128">
+        <f>A12</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="128">
+        <f>I12</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="T19" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="130">
+        <f>+APPLICATION!N11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="67">
+        <f>+APPLICATION!B12</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="T20" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="131">
+        <f>+APPLICATION!B22</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17">
+        <f>+APPLICATION!L22</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="72">
+        <f>+APPLICATION!B15</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="T21" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="131">
+        <f>+APPLICATION!B26</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17">
+        <f>+APPLICATION!AD26</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+    </row>
+    <row r="22" spans="1:35" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:35" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="128">
+        <f>+A16</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="128">
+        <f>+I16</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="T25" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="130">
+        <f>+APPLICATION!AF11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="67">
+        <f>+APPLICATION!U12</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="T26" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="91">
+        <f>+APPLICATION!U22</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <f>+APPLICATION!AC22</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="70">
+        <f>+APPLICATION!U15</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="T27" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="91">
+        <f>+APPLICATION!U26</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <f>+APPLICATION!AD26</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="134">
+        <f>+APPLICATION!B37</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="135">
+        <f>+APPLICATION!E37</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136">
+        <f>+APPLICATION!L37</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="135"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="138">
+        <f>+APPLICATION!X3</f>
+        <v>2026</v>
+      </c>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF32" s="140">
+        <f>+APPLICATION!AD3</f>
+        <v>17</v>
+      </c>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C33" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="110"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="136">
+        <f>+APPLICATION!L38</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="135"/>
+      <c r="Z33" s="142"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V35" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V36" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="143" t="str">
+        <f>+APPLICATION!F4</f>
+        <v>BERNADETTE T. SAMANDRE</v>
+      </c>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+    </row>
+    <row r="42" spans="1:31" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="144">
+        <f>+F26</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="145"/>
+      <c r="M44" s="145"/>
+      <c r="N44" s="145"/>
+      <c r="O44" s="145"/>
+      <c r="P44" s="145"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="146"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="149"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="E44:P44"/>
+    <mergeCell ref="E45:P45"/>
+    <mergeCell ref="E46:P46"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="V35:AE35"/>
+    <mergeCell ref="V36:AE36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:R27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="A7:AH7"/>
+    <mergeCell ref="A8:AH8"/>
+    <mergeCell ref="A9:AG9"/>
+    <mergeCell ref="A10:AH10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AH5"/>
+    <mergeCell ref="A6:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
